--- a/data_tools/src/data.xlsx
+++ b/data_tools/src/data.xlsx
@@ -19,6 +19,9 @@
     <t>text</t>
   </si>
   <si>
+    <t>cover</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -28,39 +31,138 @@
     <t>"Thriller," Michael Jackson</t>
   </si>
   <si>
+    <t>"West Side Story" soundtrack</t>
+  </si>
+  <si>
+    <t>WestSideStory.jpg</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>"Rumours," Fleetwood Mac</t>
+  </si>
+  <si>
+    <t>PinkFloydWishYouWereHere.jpg</t>
+  </si>
+  <si>
+    <t>"Wish You Were Here," Pink Floyd</t>
+  </si>
+  <si>
+    <t>FleetwoodMacRumours.jpg</t>
+  </si>
+  <si>
     <t>29M</t>
   </si>
   <si>
+    <t>"Purple Rain," Prince</t>
+  </si>
+  <si>
+    <t>VelvetUndergroundNico.jpg</t>
+  </si>
+  <si>
     <t>MichaelJacksonThriller.jpg</t>
   </si>
   <si>
+    <t>PrincePurpleRain.jpg</t>
+  </si>
+  <si>
+    <t>"Velvet Underground &amp; Nico," Velvet Underground</t>
+  </si>
+  <si>
     <t>"The Wall," Pink Floyd</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>23M</t>
   </si>
   <si>
+    <t>JoyDivision.jpg</t>
+  </si>
+  <si>
     <t>PinkFloydTheWall.jpg</t>
   </si>
   <si>
+    <t>The Beatles</t>
+  </si>
+  <si>
+    <t>"Unknown Pleasures," Joy Division</t>
+  </si>
+  <si>
     <t>"Come on Over," Shania Twain</t>
   </si>
   <si>
+    <t>TheBeatles.jpg</t>
+  </si>
+  <si>
     <t>20M</t>
   </si>
   <si>
+    <t>KanyeWestCollegeDropout.jpg</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>"The College Dropout," Kanye West</t>
+  </si>
+  <si>
+    <t>NewOrder.jpg</t>
+  </si>
+  <si>
+    <t>JayZ.jpg</t>
+  </si>
+  <si>
+    <t>"Power, Corruption &amp; Lies," New Order</t>
+  </si>
+  <si>
+    <t>LedZeppelinIV.jpg</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>"IV," Led Zeppelin</t>
+  </si>
+  <si>
+    <t>BarbraStreisand.jpg</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>GarthBrooks.jpg</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
     <t>ShaniaTwain.jpg</t>
   </si>
   <si>
+    <t>Madonna.jpg</t>
+  </si>
+  <si>
     <t>"Abbey Road," The Beatles</t>
   </si>
   <si>
     <t>12M</t>
   </si>
   <si>
+    <t>The Who</t>
+  </si>
+  <si>
     <t>BeatlesAbbeyRoad.jpg</t>
   </si>
   <si>
+    <t>"Please Hammer, Don't Hurt 'Em", MC Hammer</t>
+  </si>
+  <si>
+    <t>TheWho.jpg</t>
+  </si>
+  <si>
     <t>"Boston," Boston</t>
   </si>
   <si>
@@ -79,115 +181,13 @@
     <t>SaturdayNightFever.jpg</t>
   </si>
   <si>
-    <t>The Beatles</t>
-  </si>
-  <si>
-    <t>TheBeatles.jpg</t>
-  </si>
-  <si>
-    <t>Jay Z</t>
-  </si>
-  <si>
-    <t>JayZ.jpg</t>
-  </si>
-  <si>
-    <t>"West Side Story" soundtrack</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t>WestSideStory.jpg</t>
-  </si>
-  <si>
-    <t>BarbraStreisand.jpg</t>
-  </si>
-  <si>
-    <t>"Rumours," Fleetwood Mac</t>
-  </si>
-  <si>
-    <t>FleetwoodMacRumours.jpg</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>"Purple Rain," Prince</t>
-  </si>
-  <si>
-    <t>GarthBrooks.jpg</t>
-  </si>
-  <si>
-    <t>PrincePurpleRain.jpg</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>"Please Hammer, Don't Hurt 'Em"</t>
-  </si>
-  <si>
-    <t>Madonna.jpg</t>
-  </si>
-  <si>
-    <t>The Who</t>
-  </si>
-  <si>
-    <t>TheWho.jpg</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>PinkFloydWishYouWereHere.jpg</t>
-  </si>
-  <si>
-    <t>"Wish You Were Here," Pink Floyd</t>
-  </si>
-  <si>
-    <t>VelvetUndergroundNico.jpg</t>
-  </si>
-  <si>
-    <t>"Velvet Underground &amp; Nico," Velvet Underground</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>MCHammer.jpg</t>
   </si>
   <si>
-    <t>JoyDivision.jpg</t>
-  </si>
-  <si>
-    <t>"Unknown Pleasures," Joy Division</t>
-  </si>
-  <si>
-    <t>KanyeWestCollegeDropout.jpg</t>
-  </si>
-  <si>
-    <t>"The College Dropout," Kanye West</t>
-  </si>
-  <si>
-    <t>NewOrder.jpg</t>
-  </si>
-  <si>
     <t>"The Bodyguard" soundtrack</t>
   </si>
   <si>
-    <t>"Power, Corruption &amp; Lies," New Order</t>
-  </si>
-  <si>
-    <t>LedZeppelinIV.jpg</t>
-  </si>
-  <si>
     <t>TheBodyguard.jpg</t>
-  </si>
-  <si>
-    <t>"IV," Led Zeppelin</t>
   </si>
   <si>
     <t>"Full Moon Fever," Tom Petty</t>
@@ -254,10 +254,10 @@
       <alignment/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -296,86 +296,67 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="22.14"/>
-    <col customWidth="1" min="3" max="3" width="38.86"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -391,65 +372,80 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B6" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -463,82 +459,86 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.14"/>
+    <col customWidth="1" min="3" max="3" width="38.86"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -554,79 +554,79 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
         <v>54.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
         <v>31.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
         <v>24.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>36</v>
+      <c r="A5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="4">
         <v>21.0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3">
         <v>20.0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0.0</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
